--- a/CNN_calc.xlsx
+++ b/CNN_calc.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D\CNN_RC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CNN_RC\github\FCN4p-car\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
   <si>
     <t>padding</t>
     <phoneticPr fontId="1"/>
@@ -415,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFDF87C6-E471-4F26-93CD-0981F84EB515}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:A6"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -495,17 +495,17 @@
         <v>12</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F5">
         <f>((B5+2*C5-D5)/E5)+1</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">
@@ -516,17 +516,59 @@
         <v>32</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F6">
         <f>((B6+2*C6-D6)/E6)+1</f>
         <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <f>((B8+2*C8-D8)/E8)+1</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <f>((B9+2*C9-D9)/E9)+1</f>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/CNN_calc.xlsx
+++ b/CNN_calc.xlsx
@@ -1,18 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CNN_RC\github\FCN4p-car\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shts\Documents\GitHub\pi-car2\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5FECD16-C219-4C46-9ADE-A03B166CF94E}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12120" xr2:uid="{F800B73B-6842-4134-8843-990BA9C84AE6}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Conv" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="DeConv" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="11">
   <si>
     <t>padding</t>
     <phoneticPr fontId="1"/>
@@ -51,6 +54,22 @@
   </si>
   <si>
     <t>width</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>channel</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>channel</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cost</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>total</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -415,10 +434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFDF87C6-E471-4F26-93CD-0981F84EB515}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -428,7 +447,7 @@
     <col min="5" max="5" width="13.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
         <v>4</v>
       </c>
@@ -444,8 +463,211 @@
       <c r="F1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>60</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <f>((B2+2*C2-D2)/E2)+1</f>
+        <v>20</v>
+      </c>
+      <c r="G2">
+        <v>4</v>
+      </c>
+      <c r="H2">
+        <f>D2*D3*F2*F3*G2</f>
+        <v>38400</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>160</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>8</v>
+      </c>
+      <c r="E3">
+        <v>8</v>
+      </c>
+      <c r="F3">
+        <f>((B3+2*C3-D3)/E3)+1</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <f>F2</f>
+        <v>20</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <f>((B5+2*C5-D5)/E5)+1</f>
+        <v>9</v>
+      </c>
+      <c r="G5">
+        <v>4</v>
+      </c>
+      <c r="H5">
+        <f>D5*D6*F5*F6*G5*G2</f>
+        <v>20736</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <f>F3</f>
+        <v>20</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <f>((B6+2*C6-D6)/E6)+1</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <f>F5</f>
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <f>((B8+2*C8-D8)/E8)+1</f>
+        <v>4</v>
+      </c>
+      <c r="G8">
+        <v>16</v>
+      </c>
+      <c r="H8">
+        <f>D8*D9*F8*F9*G8*G5</f>
+        <v>9216</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <f>F6</f>
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <f>((B9+2*C9-D9)/E9)+1</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="G10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10">
+        <f>SUM(H2,H5,H8)</f>
+        <v>68352</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{830C3CBD-B7C5-4B7B-975E-5C9995E05C38}">
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -465,8 +687,15 @@
         <f>((B2+2*C2-D2)/E2)+1</f>
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G2">
+        <v>8</v>
+      </c>
+      <c r="H2">
+        <f>D2*D3*F2*F3*G2</f>
+        <v>76800</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -487,54 +716,64 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5">
+        <f>F2</f>
         <v>12</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F5">
         <f>((B5+2*C5-D5)/E5)+1</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+      <c r="G5">
+        <v>16</v>
+      </c>
+      <c r="H5">
+        <f>D5*D6*F5*F6*G5*G2</f>
+        <v>49152</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6">
+        <f>F3</f>
         <v>32</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F6">
         <f>((B6+2*C6-D6)/E6)+1</f>
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>5</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <f>F5</f>
+        <v>3</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -547,14 +786,22 @@
       </c>
       <c r="F8">
         <f>((B8+2*C8-D8)/E8)+1</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+        <v>1.5</v>
+      </c>
+      <c r="G8">
+        <v>32</v>
+      </c>
+      <c r="H8">
+        <f>D8*D9*F8*F9*G8*G5</f>
+        <v>12288</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>6</v>
       </c>
       <c r="B9">
+        <f>F6</f>
         <v>8</v>
       </c>
       <c r="C9">
@@ -569,6 +816,184 @@
       <c r="F9">
         <f>((B9+2*C9-D9)/E9)+1</f>
         <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H10">
+        <f>SUM(H2,H5,H8)</f>
+        <v>138240</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12F52726-09EA-405C-B95D-0891252E805B}">
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
+      <c r="F2">
+        <f>E2*(B2-1)+D2-2*C2</f>
+        <v>20</v>
+      </c>
+      <c r="G2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="F3">
+        <f>E3*(B3-1)+D3-2*C3</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <f>F2</f>
+        <v>20</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <f>E5*(B5-1)+D5-2*C5</f>
+        <v>60</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <f>F3</f>
+        <v>20</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>8</v>
+      </c>
+      <c r="E6">
+        <v>8</v>
+      </c>
+      <c r="F6">
+        <f>E6*(B6-1)+D6-2*C6</f>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <f>F5</f>
+        <v>60</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <f>E8*(B8-1)+D8-2*C8</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <f>F6</f>
+        <v>160</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <f>E9*(B9-1)+D9-2*C9</f>
+        <v>160</v>
       </c>
     </row>
   </sheetData>

--- a/CNN_calc.xlsx
+++ b/CNN_calc.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shts\Documents\GitHub\pi-car2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CNN_RC\github\FCN4p-car\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5FECD16-C219-4C46-9ADE-A03B166CF94E}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5C25DE5-E93E-4772-A3CB-03C56005C18B}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12120" xr2:uid="{F800B73B-6842-4134-8843-990BA9C84AE6}"/>
   </bookViews>
   <sheets>
     <sheet name="Conv" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
-    <sheet name="DeConv" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="DeConv" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="13">
   <si>
     <t>padding</t>
     <phoneticPr fontId="1"/>
@@ -62,6 +63,14 @@
   </si>
   <si>
     <t>channel</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cost</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>total</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -434,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFDF87C6-E471-4F26-93CD-0981F84EB515}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -491,11 +500,11 @@
         <v>20</v>
       </c>
       <c r="G2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H2">
-        <f>D2*D3*F2*F3*G2</f>
-        <v>38400</v>
+        <f>D2*D3*B2*B3*G2</f>
+        <v>460800</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.4">
@@ -544,8 +553,8 @@
         <v>4</v>
       </c>
       <c r="H5">
-        <f>D5*D6*F5*F6*G5*G2</f>
-        <v>20736</v>
+        <f>G2*G5*D5*D6*B5*B6*G5</f>
+        <v>204800</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
@@ -595,8 +604,8 @@
         <v>16</v>
       </c>
       <c r="H8">
-        <f>D8*D9*F8*F9*G8*G5</f>
-        <v>9216</v>
+        <f>D8*D9*B8*B9*G8*G5</f>
+        <v>46656</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
@@ -627,201 +636,44 @@
       </c>
       <c r="H10">
         <f>SUM(H2,H5,H8)</f>
-        <v>68352</v>
+        <v>712256</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H13">
+        <v>1377856</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{830C3CBD-B7C5-4B7B-975E-5C9995E05C38}">
-  <dimension ref="A1:H10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79A8A275-0EE8-4D6D-BFF5-61AA6B8C1F9E}">
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2">
-        <v>60</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>5</v>
-      </c>
-      <c r="E2">
-        <v>5</v>
-      </c>
-      <c r="F2">
-        <f>((B2+2*C2-D2)/E2)+1</f>
-        <v>12</v>
-      </c>
-      <c r="G2">
-        <v>8</v>
-      </c>
-      <c r="H2">
-        <f>D2*D3*F2*F3*G2</f>
-        <v>76800</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3">
-        <v>160</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>5</v>
-      </c>
-      <c r="E3">
-        <v>5</v>
-      </c>
-      <c r="F3">
-        <f>((B3+2*C3-D3)/E3)+1</f>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <f>F2</f>
-        <v>12</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>4</v>
-      </c>
-      <c r="E5">
-        <v>4</v>
-      </c>
-      <c r="F5">
-        <f>((B5+2*C5-D5)/E5)+1</f>
-        <v>3</v>
-      </c>
-      <c r="G5">
-        <v>16</v>
-      </c>
-      <c r="H5">
-        <f>D5*D6*F5*F6*G5*G2</f>
-        <v>49152</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6">
-        <f>F3</f>
-        <v>32</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>4</v>
-      </c>
-      <c r="E6">
-        <v>4</v>
-      </c>
-      <c r="F6">
-        <f>((B6+2*C6-D6)/E6)+1</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8">
-        <f>F5</f>
-        <v>3</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>2</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <f>((B8+2*C8-D8)/E8)+1</f>
-        <v>1.5</v>
-      </c>
-      <c r="G8">
-        <v>32</v>
-      </c>
-      <c r="H8">
-        <f>D8*D9*F8*F9*G8*G5</f>
-        <v>12288</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9">
-        <f>F6</f>
-        <v>8</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>2</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <f>((B9+2*C9-D9)/E9)+1</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="H10">
-        <f>SUM(H2,H5,H8)</f>
-        <v>138240</v>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1">
+        <v>1.2600000000000001E-3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>1.24E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>1.16E-3</v>
       </c>
     </row>
   </sheetData>
@@ -831,16 +683,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12F52726-09EA-405C-B95D-0891252E805B}">
-  <dimension ref="A1:G9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{830C3CBD-B7C5-4B7B-975E-5C9995E05C38}">
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H10"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
         <v>4</v>
       </c>
@@ -857,14 +709,211 @@
         <v>2</v>
       </c>
       <c r="G1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>60</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
+      <c r="F2">
+        <f>((B2+2*C2-D2)/E2)+1</f>
+        <v>12</v>
+      </c>
+      <c r="G2">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H2">
+        <f>D2*D3*B2*B3*G2</f>
+        <v>1920000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>160</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="F3">
+        <f>((B3+2*C3-D3)/E3)+1</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <f>F2</f>
+        <v>12</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <f>((B5+2*C5-D5)/E5)+1</f>
+        <v>3</v>
+      </c>
+      <c r="G5">
+        <v>16</v>
+      </c>
+      <c r="H5">
+        <f>D5*D6*B5*B6*G5*G2</f>
+        <v>786432</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <f>F3</f>
+        <v>32</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <f>((B6+2*C6-D6)/E6)+1</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <f>F5</f>
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <f>((B8+2*C8-D8)/E8)+1</f>
+        <v>1.5</v>
+      </c>
+      <c r="G8">
+        <v>32</v>
+      </c>
+      <c r="H8">
+        <f>D8*D9*B8*B9*G8*G5</f>
+        <v>49152</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <f>F6</f>
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <f>((B9+2*C9-D9)/E9)+1</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H10">
+        <f>SUM(H2,H5,H8)</f>
+        <v>2755584</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12F52726-09EA-405C-B95D-0891252E805B}">
+  <dimension ref="A1:I13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2">
+        <f>Conv!F8</f>
         <v>4</v>
       </c>
       <c r="C2">
@@ -883,12 +932,17 @@
       <c r="G2">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H2">
+        <f>Conv!G8*G2*D2*D3*F2*F3</f>
+        <v>1280000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3">
+        <f>Conv!F9</f>
         <v>4</v>
       </c>
       <c r="C3">
@@ -905,7 +959,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -929,8 +983,12 @@
       <c r="G5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H5">
+        <f>G2*G5*D5*D6*F5*F6</f>
+        <v>1843200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -952,7 +1010,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -964,17 +1022,24 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <f>E8*(B8-1)+D8-2*C8</f>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+        <v>180</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <f>G5*G8*D8*D9*F8*F9</f>
+        <v>5529600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -986,19 +1051,33 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F9">
         <f>E9*(B9-1)+D9-2*C9</f>
-        <v>160</v>
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="G10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10">
+        <f>SUM(H2:H9)</f>
+        <v>3123200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="H13">
+        <v>3123200</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/CNN_calc.xlsx
+++ b/CNN_calc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CNN_RC\github\FCN4p-car\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5C25DE5-E93E-4772-A3CB-03C56005C18B}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C387F2D0-FCE7-4ECA-90E0-37F168CEB910}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12120" xr2:uid="{F800B73B-6842-4134-8843-990BA9C84AE6}"/>
   </bookViews>
@@ -446,7 +446,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -591,21 +591,21 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8">
         <f>((B8+2*C8-D8)/E8)+1</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G8">
         <v>16</v>
       </c>
       <c r="H8">
         <f>D8*D9*B8*B9*G8*G5</f>
-        <v>46656</v>
+        <v>20736</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
@@ -620,14 +620,14 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9">
         <f>((B9+2*C9-D9)/E9)+1</f>
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.4">
@@ -636,7 +636,7 @@
       </c>
       <c r="H10">
         <f>SUM(H2,H5,H8)</f>
-        <v>712256</v>
+        <v>686336</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.4">
@@ -877,15 +877,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12F52726-09EA-405C-B95D-0891252E805B}">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
         <v>4</v>
       </c>
@@ -908,22 +908,22 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2">
         <f>Conv!F8</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <f>E2*(B2-1)+D2-2*C2</f>
@@ -934,32 +934,32 @@
       </c>
       <c r="H2">
         <f>Conv!G8*G2*D2*D3*F2*F3</f>
-        <v>1280000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+        <v>1843200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3">
         <f>Conv!F9</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <f>E3*(B3-1)+D3-2*C3</f>
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -981,14 +981,14 @@
         <v>60</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H5">
         <f>G2*G5*D5*D6*F5*F6</f>
-        <v>1843200</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+        <v>7372800</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1010,7 +1010,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -1034,12 +1034,12 @@
       <c r="G8">
         <v>1</v>
       </c>
-      <c r="I8">
+      <c r="H8">
         <f>G5*G8*D8*D9*F8*F9</f>
-        <v>5529600</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+        <v>22118400</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -1061,16 +1061,16 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="G10" t="s">
         <v>12</v>
       </c>
       <c r="H10">
         <f>SUM(H2:H9)</f>
-        <v>3123200</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+        <v>31334400</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="H13">
         <v>3123200</v>
       </c>

--- a/CNN_calc.xlsx
+++ b/CNN_calc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CNN_RC\github\FCN4p-car\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C387F2D0-FCE7-4ECA-90E0-37F168CEB910}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09D7D435-C23E-4FCB-9ED8-F40D09970BE3}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12120" xr2:uid="{F800B73B-6842-4134-8843-990BA9C84AE6}"/>
   </bookViews>
@@ -484,7 +484,7 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -497,10 +497,10 @@
       </c>
       <c r="F2">
         <f>((B2+2*C2-D2)/E2)+1</f>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G2">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H2">
         <f>D2*D3*B2*B3*G2</f>
@@ -512,7 +512,7 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -525,7 +525,7 @@
       </c>
       <c r="F3">
         <f>((B3+2*C3-D3)/E3)+1</f>
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
@@ -534,27 +534,27 @@
       </c>
       <c r="B5">
         <f>F2</f>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
         <f>((B5+2*C5-D5)/E5)+1</f>
         <v>9</v>
       </c>
       <c r="G5">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="H5">
         <f>G2*G5*D5*D6*B5*B6*G5</f>
-        <v>204800</v>
+        <v>819200</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
@@ -563,16 +563,16 @@
       </c>
       <c r="B6">
         <f>F3</f>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
         <f>((B6+2*C6-D6)/E6)+1</f>
@@ -601,11 +601,11 @@
         <v>8</v>
       </c>
       <c r="G8">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H8">
         <f>D8*D9*B8*B9*G8*G5</f>
-        <v>20736</v>
+        <v>41472</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
@@ -636,7 +636,7 @@
       </c>
       <c r="H10">
         <f>SUM(H2,H5,H8)</f>
-        <v>686336</v>
+        <v>1321472</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.4">
@@ -880,7 +880,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -920,21 +920,21 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
         <f>E2*(B2-1)+D2-2*C2</f>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G2">
         <v>8</v>
       </c>
       <c r="H2">
         <f>Conv!G8*G2*D2*D3*F2*F3</f>
-        <v>1843200</v>
+        <v>57600</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.4">
@@ -949,14 +949,14 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
         <f>E3*(B3-1)+D3-2*C3</f>
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
@@ -965,7 +965,7 @@
       </c>
       <c r="B5">
         <f>F2</f>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -978,14 +978,14 @@
       </c>
       <c r="F5">
         <f>E5*(B5-1)+D5-2*C5</f>
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="G5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H5">
         <f>G2*G5*D5*D6*F5*F6</f>
-        <v>7372800</v>
+        <v>460800</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
@@ -994,7 +994,7 @@
       </c>
       <c r="B6">
         <f>F3</f>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -1007,7 +1007,7 @@
       </c>
       <c r="F6">
         <f>E6*(B6-1)+D6-2*C6</f>
-        <v>160</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
@@ -1016,7 +1016,7 @@
       </c>
       <c r="B8">
         <f>F5</f>
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -1029,14 +1029,14 @@
       </c>
       <c r="F8">
         <f>E8*(B8-1)+D8-2*C8</f>
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="H8">
         <f>G5*G8*D8*D9*F8*F9</f>
-        <v>22118400</v>
+        <v>1382400</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
@@ -1045,7 +1045,7 @@
       </c>
       <c r="B9">
         <f>F6</f>
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -1058,7 +1058,7 @@
       </c>
       <c r="F9">
         <f>E9*(B9-1)+D9-2*C9</f>
-        <v>1280</v>
+        <v>640</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.4">
@@ -1067,7 +1067,7 @@
       </c>
       <c r="H10">
         <f>SUM(H2:H9)</f>
-        <v>31334400</v>
+        <v>1900800</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.4">

--- a/CNN_calc.xlsx
+++ b/CNN_calc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CNN_RC\github\FCN4p-car\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09D7D435-C23E-4FCB-9ED8-F40D09970BE3}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{658FB2D1-6A28-4BBA-970E-AC768EA39099}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12120" xr2:uid="{F800B73B-6842-4134-8843-990BA9C84AE6}"/>
   </bookViews>
@@ -446,7 +446,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -500,11 +500,11 @@
         <v>10</v>
       </c>
       <c r="G2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H2">
         <f>D2*D3*B2*B3*G2</f>
-        <v>460800</v>
+        <v>576000</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.4">
@@ -550,11 +550,11 @@
         <v>9</v>
       </c>
       <c r="G5">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H5">
         <f>G2*G5*D5*D6*B5*B6*G5</f>
-        <v>819200</v>
+        <v>256000</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
@@ -601,11 +601,11 @@
         <v>8</v>
       </c>
       <c r="G8">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H8">
         <f>D8*D9*B8*B9*G8*G5</f>
-        <v>41472</v>
+        <v>15552</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
@@ -636,7 +636,7 @@
       </c>
       <c r="H10">
         <f>SUM(H2,H5,H8)</f>
-        <v>1321472</v>
+        <v>847552</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.4">
@@ -880,7 +880,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -934,7 +934,7 @@
       </c>
       <c r="H2">
         <f>Conv!G8*G2*D2*D3*F2*F3</f>
-        <v>57600</v>
+        <v>43200</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.4">
@@ -1067,7 +1067,7 @@
       </c>
       <c r="H10">
         <f>SUM(H2:H9)</f>
-        <v>1900800</v>
+        <v>1886400</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.4">

--- a/CNN_calc.xlsx
+++ b/CNN_calc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CNN_RC\github\FCN4p-car\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{658FB2D1-6A28-4BBA-970E-AC768EA39099}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{805726E2-597D-488E-975B-BF5F92D2F0A7}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12120" xr2:uid="{F800B73B-6842-4134-8843-990BA9C84AE6}"/>
   </bookViews>
@@ -443,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFDF87C6-E471-4F26-93CD-0981F84EB515}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -456,7 +456,7 @@
     <col min="5" max="5" width="13.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
         <v>4</v>
       </c>
@@ -479,12 +479,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -497,22 +497,26 @@
       </c>
       <c r="F2">
         <f>((B2+2*C2-D2)/E2)+1</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G2">
         <v>10</v>
       </c>
       <c r="H2">
         <f>D2*D3*B2*B3*G2</f>
-        <v>576000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+        <v>368640</v>
+      </c>
+      <c r="M2">
+        <f>B2*B3*1</f>
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -525,16 +529,26 @@
       </c>
       <c r="F3">
         <f>((B3+2*C3-D3)/E3)+1</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+        <v>8</v>
+      </c>
+      <c r="M3">
+        <f>F2*F3*G2</f>
+        <v>640</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="M4">
+        <f>F5*F6*G5</f>
+        <v>392</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5">
         <f>F2</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -547,23 +561,27 @@
       </c>
       <c r="F5">
         <f>((B5+2*C5-D5)/E5)+1</f>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G5">
         <v>8</v>
       </c>
       <c r="H5">
         <f>G2*G5*D5*D6*B5*B6*G5</f>
-        <v>256000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+        <v>163840</v>
+      </c>
+      <c r="M5">
+        <f>F8*F9*G8</f>
+        <v>216</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6">
         <f>F3</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -576,16 +594,16 @@
       </c>
       <c r="F6">
         <f>((B6+2*C6-D6)/E6)+1</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>5</v>
       </c>
       <c r="B8">
         <f>F5</f>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -598,23 +616,23 @@
       </c>
       <c r="F8">
         <f>((B8+2*C8-D8)/E8)+1</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G8">
         <v>6</v>
       </c>
       <c r="H8">
         <f>D8*D9*B8*B9*G8*G5</f>
-        <v>15552</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+        <v>9408</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>6</v>
       </c>
       <c r="B9">
         <f>F6</f>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -627,19 +645,19 @@
       </c>
       <c r="F9">
         <f>((B9+2*C9-D9)/E9)+1</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
       <c r="G10" t="s">
         <v>10</v>
       </c>
       <c r="H10">
         <f>SUM(H2,H5,H8)</f>
-        <v>847552</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+        <v>541888</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
       <c r="H13">
         <v>1377856</v>
       </c>
@@ -880,7 +898,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -914,7 +932,7 @@
       </c>
       <c r="B2">
         <f>Conv!F8</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -927,14 +945,14 @@
       </c>
       <c r="F2">
         <f>E2*(B2-1)+D2-2*C2</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G2">
         <v>8</v>
       </c>
       <c r="H2">
         <f>Conv!G8*G2*D2*D3*F2*F3</f>
-        <v>43200</v>
+        <v>27648</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.4">
@@ -943,7 +961,7 @@
       </c>
       <c r="B3">
         <f>Conv!F9</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -956,7 +974,7 @@
       </c>
       <c r="F3">
         <f>E3*(B3-1)+D3-2*C3</f>
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
@@ -965,7 +983,7 @@
       </c>
       <c r="B5">
         <f>F2</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -978,14 +996,14 @@
       </c>
       <c r="F5">
         <f>E5*(B5-1)+D5-2*C5</f>
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="H5">
         <f>G2*G5*D5*D6*F5*F6</f>
-        <v>460800</v>
+        <v>294912</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
@@ -994,7 +1012,7 @@
       </c>
       <c r="B6">
         <f>F3</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -1007,7 +1025,7 @@
       </c>
       <c r="F6">
         <f>E6*(B6-1)+D6-2*C6</f>
-        <v>80</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
@@ -1016,7 +1034,7 @@
       </c>
       <c r="B8">
         <f>F5</f>
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -1029,14 +1047,14 @@
       </c>
       <c r="F8">
         <f>E8*(B8-1)+D8-2*C8</f>
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="H8">
         <f>G5*G8*D8*D9*F8*F9</f>
-        <v>1382400</v>
+        <v>884736</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
@@ -1045,7 +1063,7 @@
       </c>
       <c r="B9">
         <f>F6</f>
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -1058,7 +1076,7 @@
       </c>
       <c r="F9">
         <f>E9*(B9-1)+D9-2*C9</f>
-        <v>640</v>
+        <v>512</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.4">
@@ -1067,7 +1085,7 @@
       </c>
       <c r="H10">
         <f>SUM(H2:H9)</f>
-        <v>1886400</v>
+        <v>1207296</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.4">

--- a/CNN_calc.xlsx
+++ b/CNN_calc.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CNN_RC\github\FCN4p-car\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shts\Documents\GitHub\pi-car2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{805726E2-597D-488E-975B-BF5F92D2F0A7}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2E53129-539E-4E42-99DC-C59B40ABCFF4}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12120" xr2:uid="{F800B73B-6842-4134-8843-990BA9C84AE6}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12120" activeTab="2" xr2:uid="{F800B73B-6842-4134-8843-990BA9C84AE6}"/>
   </bookViews>
   <sheets>
     <sheet name="Conv" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="4" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
-    <sheet name="DeConv" sheetId="2" r:id="rId4"/>
+    <sheet name="DeConv" sheetId="2" r:id="rId2"/>
+    <sheet name="Conv_test" sheetId="5" r:id="rId3"/>
+    <sheet name="Deconv_test" sheetId="6" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="13">
   <si>
     <t>padding</t>
     <phoneticPr fontId="1"/>
@@ -445,8 +445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFDF87C6-E471-4F26-93CD-0981F84EB515}">
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -670,42 +670,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79A8A275-0EE8-4D6D-BFF5-61AA6B8C1F9E}">
-  <dimension ref="A1:A3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12F52726-09EA-405C-B95D-0891252E805B}">
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A1">
-        <v>1.2600000000000001E-3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A2">
-        <v>1.24E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A3">
-        <v>1.16E-3</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{830C3CBD-B7C5-4B7B-975E-5C9995E05C38}">
-  <dimension ref="A1:H10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection sqref="A1:H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -727,7 +696,10 @@
         <v>2</v>
       </c>
       <c r="G1" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.4">
@@ -735,27 +707,28 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>60</v>
+        <f>Conv!F8</f>
+        <v>6</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <f>((B2+2*C2-D2)/E2)+1</f>
-        <v>12</v>
+        <f>E2*(B2-1)+D2-2*C2</f>
+        <v>8</v>
       </c>
       <c r="G2">
         <v>8</v>
       </c>
       <c r="H2">
-        <f>D2*D3*B2*B3*G2</f>
-        <v>1920000</v>
+        <f>Conv!G8*G2*D2*D3*F2*F3</f>
+        <v>27648</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.4">
@@ -763,20 +736,21 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>160</v>
+        <f>Conv!F9</f>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <f>((B3+2*C3-D3)/E3)+1</f>
-        <v>32</v>
+        <f>E3*(B3-1)+D3-2*C3</f>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
@@ -785,27 +759,27 @@
       </c>
       <c r="B5">
         <f>F2</f>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <f>((B5+2*C5-D5)/E5)+1</f>
-        <v>3</v>
+        <f>E5*(B5-1)+D5-2*C5</f>
+        <v>24</v>
       </c>
       <c r="G5">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="H5">
-        <f>D5*D6*B5*B6*G5*G2</f>
-        <v>786432</v>
+        <f>G2*G5*D5*D6*F5*F6</f>
+        <v>884736</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
@@ -814,20 +788,20 @@
       </c>
       <c r="B6">
         <f>F3</f>
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E6">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F6">
-        <f>((B6+2*C6-D6)/E6)+1</f>
-        <v>8</v>
+        <f>E6*(B6-1)+D6-2*C6</f>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
@@ -836,27 +810,232 @@
       </c>
       <c r="B8">
         <f>F5</f>
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <f>E8*(B8-1)+D8-2*C8</f>
+        <v>72</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <f>G5*G8*D8*D9*F8*F9</f>
+        <v>2654208</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <f>F6</f>
+        <v>64</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>8</v>
+      </c>
+      <c r="E9">
+        <v>8</v>
+      </c>
+      <c r="F9">
+        <f>E9*(B9-1)+D9-2*C9</f>
+        <v>512</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="G10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10">
+        <f>SUM(H2:H7)</f>
+        <v>912384</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H13">
+        <v>3123200</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83302907-988F-4496-B590-00C0D36C47C4}">
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
         <v>2</v>
       </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>32</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+      <c r="F2">
+        <f>((B2+2*C2-D2)/E2)+1</f>
+        <v>8</v>
+      </c>
+      <c r="G2">
+        <v>10</v>
+      </c>
+      <c r="H2">
+        <f>D2*D3*B2*B3*G2</f>
+        <v>327680</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>64</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="F3">
+        <f>((B3+2*C3-D3)/E3)+1</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <f>F2</f>
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <f>((B5+2*C5-D5)/E5)+1</f>
+        <v>8</v>
+      </c>
+      <c r="G5">
+        <v>8</v>
+      </c>
+      <c r="H5">
+        <f>G2*G5*D5*D6*B5*B6*G5</f>
+        <v>163840</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <f>F3</f>
+        <v>16</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <f>((B6+2*C6-D6)/E6)+1</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <f>F5</f>
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8">
         <f>((B8+2*C8-D8)/E8)+1</f>
-        <v>1.5</v>
+        <v>8</v>
       </c>
       <c r="G8">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="H8">
         <f>D8*D9*B8*B9*G8*G5</f>
-        <v>49152</v>
+        <v>3072</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
@@ -871,20 +1050,28 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9">
         <f>((B9+2*C9-D9)/E9)+1</f>
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="G10" t="s">
+        <v>10</v>
+      </c>
       <c r="H10">
         <f>SUM(H2,H5,H8)</f>
-        <v>2755584</v>
+        <v>494592</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H13">
+        <v>1377856</v>
       </c>
     </row>
   </sheetData>
@@ -894,11 +1081,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12F52726-09EA-405C-B95D-0891252E805B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAB77332-CADB-4569-BD59-B06F71EF8F29}">
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -920,10 +1107,10 @@
         <v>2</v>
       </c>
       <c r="G1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.4">
@@ -931,14 +1118,14 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <f>Conv!F8</f>
-        <v>6</v>
+        <f>Conv_test!F8</f>
+        <v>8</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -952,7 +1139,7 @@
       </c>
       <c r="H2">
         <f>Conv!G8*G2*D2*D3*F2*F3</f>
-        <v>27648</v>
+        <v>12288</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.4">
@@ -960,21 +1147,21 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <f>Conv!F9</f>
-        <v>6</v>
+        <f>Conv_test!F9</f>
+        <v>8</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <f>E3*(B3-1)+D3-2*C3</f>
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
@@ -989,21 +1176,21 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F5">
         <f>E5*(B5-1)+D5-2*C5</f>
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H5">
         <f>G2*G5*D5*D6*F5*F6</f>
-        <v>294912</v>
+        <v>786432</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
@@ -1012,80 +1199,29 @@
       </c>
       <c r="B6">
         <f>F3</f>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E6">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F6">
         <f>E6*(B6-1)+D6-2*C6</f>
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8">
-        <f>F5</f>
-        <v>24</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>3</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <f>E8*(B8-1)+D8-2*C8</f>
-        <v>72</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <f>G5*G8*D8*D9*F8*F9</f>
-        <v>884736</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9">
-        <f>F6</f>
-        <v>64</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>8</v>
-      </c>
-      <c r="E9">
-        <v>8</v>
-      </c>
-      <c r="F9">
-        <f>E9*(B9-1)+D9-2*C9</f>
-        <v>512</v>
-      </c>
-    </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="G10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H10">
-        <f>SUM(H2:H9)</f>
-        <v>1207296</v>
+        <f>SUM(H2:H7)</f>
+        <v>798720</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.4">
@@ -1096,6 +1232,5 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>